--- a/mfa/I_orientalis/run_files/Clim__D_0_23/data_expmt1.xlsx
+++ b/mfa/I_orientalis/run_files/Clim__D_0_23/data_expmt1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MSData" sheetId="1" state="visible" r:id="rId2"/>
@@ -904,8 +904,8 @@
   </sheetPr>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:H34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1820,8 +1820,8 @@
   </sheetPr>
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A37" activeCellId="1" sqref="A2:H34 A37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1859,18 +1859,19 @@
         <v>0.23</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>1E-006</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>211</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0.115639595093965</v>
+        <v>0.179398148148148</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.0115639595093965</v>
+        <f aca="false">MIN(B4*0.1, 0.115639595093965 )</f>
+        <v>0.0179398148148148</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2254,8 +2255,8 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:H34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
